--- a/test-code-generator/Evaluation/QuantitativeEvaluation/6/UC5_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/6/UC5_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3018908400269084</v>
+        <v>0.2922754554115237</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.30189084002690836, 'ngram_match_score': 0.09447299517196307, 'weighted_ngram_match_score': 0.17966861427254033, 'syntax_match_score': 0.5103448275862069, 'dataflow_match_score': 0.4230769230769231}</t>
+          <t>{'codebleu': 0.2922754554115237, 'ngram_match_score': 0.09447299517196307, 'weighted_ngram_match_score': 0.17966861427254033, 'syntax_match_score': 0.5103448275862069, 'dataflow_match_score': 0.38461538461538464}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
